--- a/glaciar_1657/punto.xlsx
+++ b/glaciar_1657/punto.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -366,7 +366,12 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-72.48063650893633</v>
+        <v>-72.18739892276957</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>-41.94811788000472</v>
       </c>
     </row>
   </sheetData>

--- a/glaciar_1657/punto.xlsx
+++ b/glaciar_1657/punto.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -374,6 +374,11 @@
         <v>-42.83000500009545</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
